--- a/tests/data/desired/highlightreport.xlsx
+++ b/tests/data/desired/highlightreport.xlsx
@@ -74,7 +74,7 @@
     <t>Column Name</t>
   </si>
   <si>
-    <t>Derby</t>
+    <t>Value in Derby</t>
   </si>
   <si>
     <t>Difference</t>
@@ -2634,8 +2634,8 @@
   <cols>
     <col min="1" max="1" width="18.234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="7.01171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.59375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="10.59375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.98046875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="18.98046875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.46484375" customWidth="true" bestFit="true"/>
   </cols>
